--- a/Requerimientos/software y hardware.xlsx
+++ b/Requerimientos/software y hardware.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jessid Guayacundo Vargas\ADSI\PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\GitHub\ProyectoFSS\Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6C16DB-FB95-476D-9D5D-96608272F821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Sistema Operativo</t>
   </si>
@@ -114,12 +115,24 @@
   </si>
   <si>
     <t>Modem</t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,9 +541,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -937,11 +947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,40 +965,40 @@
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -997,16 +1007,16 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1015,16 +1025,16 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1033,16 +1043,16 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1051,31 +1061,39 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="41"/>
+      <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="1"/>
@@ -1085,11 +1103,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="24" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="3"/>
@@ -1099,29 +1117,29 @@
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="29"/>
-      <c r="F13" s="25" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
